--- a/Project Details/BOM.xlsx
+++ b/Project Details/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ITEM</t>
   </si>
@@ -54,15 +54,6 @@
     <t>VOLTAGE REG 3.3V</t>
   </si>
   <si>
-    <t>UA78M33CKCS</t>
-  </si>
-  <si>
-    <t>14P7581</t>
-  </si>
-  <si>
-    <t>NEWARK</t>
-  </si>
-  <si>
     <t>ATMEGA328P-PU-ND</t>
   </si>
   <si>
@@ -71,12 +62,18 @@
   <si>
     <t>MICROCONTROLLER</t>
   </si>
+  <si>
+    <t>MCP1825S-3302E/AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MCP1825S-3302E/AB-ND</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,23 +82,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF555555"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -145,23 +137,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,15 +453,15 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -501,7 +488,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -510,66 +497,66 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="G2" s="3">
+        <f xml:space="preserve"> F2 * E2</f>
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G2" s="5">
-        <f xml:space="preserve"> F2 * E2</f>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G66" si="0" xml:space="preserve"> F3 * E3</f>
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G66" si="0" xml:space="preserve"> F3 * E3</f>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
         <v>3.16</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" si="0"/>
-        <v>31.6</v>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>18.96</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/Project Details/BOM.xlsx
+++ b/Project Details/BOM.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\SignalSenders\Project Details\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="3156" windowHeight="4128"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>ITEM</t>
   </si>
@@ -153,16 +158,85 @@
     <t>Pololu</t>
   </si>
   <si>
-    <t xml:space="preserve">JP2 </t>
-  </si>
-  <si>
-    <t>JP3-JP6</t>
-  </si>
-  <si>
-    <t>PIN HEADER 1X3 FML</t>
-  </si>
-  <si>
-    <t>PIN HEADER 1X2 ML</t>
+    <t xml:space="preserve">JP2-JP6 </t>
+  </si>
+  <si>
+    <t>1x PIN HEADERS</t>
+  </si>
+  <si>
+    <t>HAVE</t>
+  </si>
+  <si>
+    <t>LED 1-5</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>R1-R6</t>
+  </si>
+  <si>
+    <t>1K RESISTOR</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>PUSH BUTTON SWITCH</t>
+  </si>
+  <si>
+    <t>450-1650-ND</t>
+  </si>
+  <si>
+    <t>FSM4JH</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>SLIDE POWER SWUTCH</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>SV1</t>
+  </si>
+  <si>
+    <t>A105155-ND</t>
+  </si>
+  <si>
+    <t>5-146254-3</t>
+  </si>
+  <si>
+    <t>PIN HEADER 2X3 ML</t>
+  </si>
+  <si>
+    <t>SV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1 </t>
+  </si>
+  <si>
+    <t>DIP SWITCH</t>
+  </si>
+  <si>
+    <t>CT2092MS-ND</t>
+  </si>
+  <si>
+    <t>209-2MS</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>DC ADAPTER</t>
+  </si>
+  <si>
+    <t>Y2</t>
   </si>
 </sst>
 </file>
@@ -218,7 +292,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -303,6 +383,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -313,6 +404,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +490,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,20 +701,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="20"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -642,7 +738,7 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -652,7 +748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -674,7 +770,7 @@
       <c r="G2" s="7">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="17">
         <f t="shared" ref="H2:H66" si="0" xml:space="preserve"> G2 * F2</f>
         <v>1.44</v>
       </c>
@@ -683,7 +779,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -705,7 +801,7 @@
       <c r="G3" s="7">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="17">
         <f t="shared" si="0"/>
         <v>4.09</v>
       </c>
@@ -714,7 +810,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -736,7 +832,7 @@
       <c r="G4" s="7">
         <v>0.11</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="17">
         <f t="shared" si="0"/>
         <v>1.65</v>
       </c>
@@ -745,7 +841,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
@@ -757,14 +853,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="H5" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -786,7 +882,7 @@
       <c r="G6" s="2">
         <v>0.12</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="17">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
@@ -795,7 +891,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -817,7 +913,7 @@
       <c r="G7" s="2">
         <v>0.63700000000000001</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="17">
         <f t="shared" si="0"/>
         <v>6.37</v>
       </c>
@@ -826,7 +922,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -848,7 +944,7 @@
       <c r="G8" s="3">
         <v>0.82</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="18">
         <f xml:space="preserve"> G8 * F8</f>
         <v>8.1999999999999993</v>
       </c>
@@ -857,7 +953,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
@@ -879,7 +975,7 @@
       <c r="G9" s="3">
         <v>3.16</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
         <v>31.6</v>
       </c>
@@ -888,7 +984,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
@@ -910,7 +1006,7 @@
       <c r="G10" s="2">
         <v>0.53</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="17">
         <f t="shared" si="0"/>
         <v>5.3000000000000007</v>
       </c>
@@ -919,165 +1015,249 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+      <c r="H11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B12" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+      <c r="H12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+      <c r="H15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
+      <c r="H17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="0"/>
+        <v>5.4300000000000006</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2">
+      <c r="H19" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2">
+      <c r="H20" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1085,14 +1265,14 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2">
+      <c r="H21" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1100,14 +1280,14 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2">
+      <c r="H22" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1115,11 +1295,11 @@
       <c r="E23" s="5"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3"/>
       <c r="C24" s="6"/>
@@ -1127,11 +1307,11 @@
       <c r="E24" s="6"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1139,11 +1319,11 @@
       <c r="E25" s="5"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1151,11 +1331,11 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1163,11 +1343,11 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1175,11 +1355,11 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1187,14 +1367,14 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2">
+      <c r="H29" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1202,14 +1382,14 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2">
+      <c r="H30" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1217,14 +1397,14 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2">
+      <c r="H31" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1232,14 +1412,14 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2">
+      <c r="H32" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1247,14 +1427,14 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2">
+      <c r="H33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1262,14 +1442,14 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2">
+      <c r="H34" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1277,14 +1457,14 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2">
+      <c r="H35" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1292,14 +1472,14 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2">
+      <c r="H36" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1307,14 +1487,14 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2">
+      <c r="H37" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1322,14 +1502,14 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2">
+      <c r="H38" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1337,14 +1517,14 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2">
+      <c r="H39" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1352,14 +1532,14 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2">
+      <c r="H40" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1367,14 +1547,14 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2">
+      <c r="H41" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1382,14 +1562,14 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2">
+      <c r="H42" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1397,14 +1577,14 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2">
+      <c r="H43" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1412,14 +1592,14 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2">
+      <c r="H44" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1427,14 +1607,14 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2">
+      <c r="H45" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1442,14 +1622,14 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2">
+      <c r="H46" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1457,14 +1637,14 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2">
+      <c r="H47" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1472,14 +1652,14 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2">
+      <c r="H48" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1487,14 +1667,14 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2">
+      <c r="H49" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1502,14 +1682,14 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2">
+      <c r="H50" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1517,14 +1697,14 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2">
+      <c r="H51" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1532,14 +1712,14 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2">
+      <c r="H52" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1547,14 +1727,14 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2">
+      <c r="H53" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1562,14 +1742,14 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2">
+      <c r="H54" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1577,14 +1757,14 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2">
+      <c r="H55" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1592,14 +1772,14 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2">
+      <c r="H56" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1607,14 +1787,14 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2">
+      <c r="H57" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1622,14 +1802,14 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2">
+      <c r="H58" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1637,14 +1817,14 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2">
+      <c r="H59" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1652,14 +1832,14 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2">
+      <c r="H60" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1667,14 +1847,14 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2">
+      <c r="H61" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1682,14 +1862,14 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2">
+      <c r="H62" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1697,14 +1877,14 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2">
+      <c r="H63" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1712,14 +1892,14 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2">
+      <c r="H64" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1727,14 +1907,14 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2">
+      <c r="H65" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1742,14 +1922,14 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2">
+      <c r="H66" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1757,14 +1937,14 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2">
+      <c r="H67" s="17">
         <f t="shared" ref="H67:H100" si="1" xml:space="preserve"> G67 * F67</f>
         <v>0</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1772,14 +1952,14 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2">
+      <c r="H68" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1787,14 +1967,14 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2">
+      <c r="H69" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1802,14 +1982,14 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2">
+      <c r="H70" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1817,14 +1997,14 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2">
+      <c r="H71" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1832,14 +2012,14 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2">
+      <c r="H72" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1847,14 +2027,14 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2">
+      <c r="H73" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1862,14 +2042,14 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2">
+      <c r="H74" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1877,14 +2057,14 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2">
+      <c r="H75" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1892,14 +2072,14 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2">
+      <c r="H76" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1907,14 +2087,14 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2">
+      <c r="H77" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1922,14 +2102,14 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="2">
+      <c r="H78" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1937,14 +2117,14 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="2">
+      <c r="H79" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1952,14 +2132,14 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="2">
+      <c r="H80" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1967,14 +2147,14 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="2">
+      <c r="H81" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1982,14 +2162,14 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="2">
+      <c r="H82" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1997,14 +2177,14 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="2">
+      <c r="H83" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2012,14 +2192,14 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2">
+      <c r="H84" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2027,14 +2207,14 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="2">
+      <c r="H85" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2042,14 +2222,14 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="2">
+      <c r="H86" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2057,14 +2237,14 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="2">
+      <c r="H87" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2072,14 +2252,14 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="2">
+      <c r="H88" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2087,14 +2267,14 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="2">
+      <c r="H89" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2102,14 +2282,14 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="2">
+      <c r="H90" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2117,14 +2297,14 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="2">
+      <c r="H91" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2132,14 +2312,14 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="2">
+      <c r="H92" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2147,14 +2327,14 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="2">
+      <c r="H93" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2162,14 +2342,14 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="2">
+      <c r="H94" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2177,14 +2357,14 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="2">
+      <c r="H95" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2192,14 +2372,14 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="2">
+      <c r="H96" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2207,14 +2387,14 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="2">
+      <c r="H97" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2222,14 +2402,14 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="2">
+      <c r="H98" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2237,14 +2417,14 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="2">
+      <c r="H99" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2252,7 +2432,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="2">
+      <c r="H100" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2274,7 +2454,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2286,7 +2466,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Details/BOM.xlsx
+++ b/Project Details/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
   <si>
     <t>ITEM</t>
   </si>
@@ -280,6 +280,54 @@
   </si>
   <si>
     <t>NO-SHOULD BE OK</t>
+  </si>
+  <si>
+    <t>JMP1</t>
+  </si>
+  <si>
+    <t>SHUNT/JUMPER</t>
+  </si>
+  <si>
+    <t>4-881545-2</t>
+  </si>
+  <si>
+    <t>A26853-ND</t>
+  </si>
+  <si>
+    <t>RF Module 10 Pack</t>
+  </si>
+  <si>
+    <t>NRF24L01+</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>IR 1</t>
+  </si>
+  <si>
+    <t>RF 1</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>IR SENSOR</t>
+  </si>
+  <si>
+    <t>PCB BOARDS</t>
+  </si>
+  <si>
+    <t>HS1</t>
+  </si>
+  <si>
+    <t>HOUSING</t>
   </si>
 </sst>
 </file>
@@ -392,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -442,6 +490,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -747,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +875,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H21" si="0" xml:space="preserve"> G2 * F2</f>
+        <f t="shared" ref="H2:H22" si="0" xml:space="preserve"> G2 * F2</f>
         <v>1.44</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -1401,54 +1454,143 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="4">
-        <v>10</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="H21" s="25">
-        <f t="shared" si="0"/>
-        <v>4.1099999999999994</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="A21" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="6">
+        <v>25</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>6.4249999999999998</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" si="0"/>
+        <v>4.1099999999999994</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="2">
-        <f>SUM(H2:H21)</f>
-        <v>97.990000000000009</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="2">
+        <f>SUM(H2:H22)</f>
+        <v>104.41500000000001</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
